--- a/data/processed/stateness.xlsx
+++ b/data/processed/stateness.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,6 +392,11 @@
           <t>approach</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>proxy_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -413,6 +418,7 @@
           <t>lowest common denominator</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -434,6 +440,7 @@
           <t>lowest common denominator</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -455,6 +462,7 @@
           <t>lowest common denominator</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,6 +484,7 @@
           <t>lowest common denominator</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -497,6 +506,7 @@
           <t>lowest common denominator</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -518,6 +528,7 @@
           <t>lowest common denominator</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -539,6 +550,7 @@
           <t>lowest common denominator</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.7365810402868</v>
+        <v>91.77711692094725</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -559,6 +571,9 @@
         <is>
           <t>fully covered</t>
         </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7.34216935367578</v>
       </c>
     </row>
     <row r="10">
@@ -571,7 +586,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.96329636627423</v>
+        <v>43.44152356272578</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -580,6 +595,9 @@
         <is>
           <t>fully covered</t>
         </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3.475321885018063</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +610,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27.76221807586535</v>
+        <v>58.97972920793819</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -601,6 +619,9 @@
         <is>
           <t>fully covered</t>
         </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4.718378336635055</v>
       </c>
     </row>
     <row r="12">
@@ -613,7 +634,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13.35578205968594</v>
+        <v>27.36760478732106</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -622,6 +643,9 @@
         <is>
           <t>fully covered</t>
         </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.189408382985685</v>
       </c>
     </row>
     <row r="13">
@@ -634,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.58655421043453</v>
+        <v>30.37234983190082</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -643,6 +667,9 @@
         <is>
           <t>fully covered</t>
         </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.429787986552066</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +682,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.01313459748565</v>
+        <v>28.41576417107299</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -664,6 +691,9 @@
         <is>
           <t>fully covered</t>
         </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.273261133685839</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +706,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27.52887012596806</v>
+        <v>58.51520867253684</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -685,6 +715,9 @@
         <is>
           <t>fully covered</t>
         </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4.681216693802947</v>
       </c>
     </row>
     <row r="16">
@@ -697,7 +730,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26.51484386650573</v>
+        <v>54.72511187898955</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -706,6 +739,9 @@
         <is>
           <t>max definition</t>
         </is>
+      </c>
+      <c r="F16" t="n">
+        <v>7.661515663058537</v>
       </c>
     </row>
     <row r="17">
@@ -718,7 +754,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.3641654215787</v>
+        <v>29.2984430079222</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -727,6 +763,9 @@
         <is>
           <t>max definition</t>
         </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.101782021109108</v>
       </c>
     </row>
     <row r="18">
@@ -739,7 +778,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.88148896535611</v>
+        <v>52.96138799608162</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -748,6 +787,9 @@
         <is>
           <t>max definition</t>
         </is>
+      </c>
+      <c r="F18" t="n">
+        <v>7.414594319451427</v>
       </c>
     </row>
     <row r="19">
@@ -760,7 +802,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12.50453334521554</v>
+        <v>27.75866627322171</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -769,6 +811,9 @@
         <is>
           <t>max definition</t>
         </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.886213278251039</v>
       </c>
     </row>
     <row r="20">
@@ -781,7 +826,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14.91009552728239</v>
+        <v>34.49704982541673</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -790,6 +835,9 @@
         <is>
           <t>max definition</t>
         </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4.829586975558342</v>
       </c>
     </row>
     <row r="21">
@@ -802,7 +850,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10.76189484129405</v>
+        <v>23.82869998625382</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -811,6 +859,9 @@
         <is>
           <t>max definition</t>
         </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.336017998075534</v>
       </c>
     </row>
     <row r="22">
@@ -823,7 +874,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.44861496308792</v>
+        <v>47.78861512596627</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -832,6 +883,9 @@
         <is>
           <t>max definition</t>
         </is>
+      </c>
+      <c r="F22" t="n">
+        <v>6.690406117635277</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/stateness.xlsx
+++ b/data/processed/stateness.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,11 +392,6 @@
           <t>approach</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>proxy_score</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -408,7 +403,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87.38314582602531</v>
+        <v>90.18689119801969</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -418,7 +413,6 @@
           <t>lowest common denominator</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -430,7 +424,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45.71063693993876</v>
+        <v>42.1211859484266</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -440,7 +434,6 @@
           <t>lowest common denominator</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -452,7 +445,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34.9364288961627</v>
+        <v>31.95101784416348</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -462,7 +455,6 @@
           <t>lowest common denominator</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -474,7 +466,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.02355237823044</v>
+        <v>10.60357393912821</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -484,7 +476,6 @@
           <t>lowest common denominator</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -496,7 +487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.70379924813863</v>
+        <v>13.58220708257133</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -506,7 +497,6 @@
           <t>lowest common denominator</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -518,7 +508,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15.73988170672342</v>
+        <v>14.58253041509032</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -528,7 +518,6 @@
           <t>lowest common denominator</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -540,7 +529,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49.30315267923618</v>
+        <v>41.82701748510166</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -550,7 +539,6 @@
           <t>lowest common denominator</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -562,7 +550,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>91.77711692094725</v>
+        <v>89.31906611564214</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -571,9 +559,6 @@
         <is>
           <t>fully covered</t>
         </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7.34216935367578</v>
       </c>
     </row>
     <row r="10">
@@ -586,7 +571,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43.44152356272578</v>
+        <v>54.01496197146427</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -595,9 +580,6 @@
         <is>
           <t>fully covered</t>
         </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3.475321885018063</v>
       </c>
     </row>
     <row r="11">
@@ -610,7 +592,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58.97972920793819</v>
+        <v>67.68571287915917</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -619,9 +601,6 @@
         <is>
           <t>fully covered</t>
         </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4.718378336635055</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +613,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27.36760478732106</v>
+        <v>32.21763876814796</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -643,9 +622,6 @@
         <is>
           <t>fully covered</t>
         </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.189408382985685</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +634,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30.37234983190082</v>
+        <v>38.13888888950769</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -667,9 +643,6 @@
         <is>
           <t>fully covered</t>
         </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.429787986552066</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +655,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28.41576417107299</v>
+        <v>32.04362792061312</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -691,9 +664,6 @@
         <is>
           <t>fully covered</t>
         </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.273261133685839</v>
       </c>
     </row>
     <row r="15">
@@ -706,7 +676,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58.51520867253684</v>
+        <v>60.89043383888123</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -715,9 +685,6 @@
         <is>
           <t>fully covered</t>
         </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4.681216693802947</v>
       </c>
     </row>
     <row r="16">
@@ -730,7 +697,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>54.72511187898955</v>
+        <v>59.54604407709476</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -739,9 +706,6 @@
         <is>
           <t>max definition</t>
         </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7.661515663058537</v>
       </c>
     </row>
     <row r="17">
@@ -754,7 +718,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29.2984430079222</v>
+        <v>37.37637124300882</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -763,9 +727,6 @@
         <is>
           <t>max definition</t>
         </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4.101782021109108</v>
       </c>
     </row>
     <row r="18">
@@ -778,7 +739,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>52.96138799608162</v>
+        <v>60.2597730205114</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -787,9 +748,6 @@
         <is>
           <t>max definition</t>
         </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7.414594319451427</v>
       </c>
     </row>
     <row r="19">
@@ -802,7 +760,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27.75866627322171</v>
+        <v>31.02100433554059</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -811,9 +769,6 @@
         <is>
           <t>max definition</t>
         </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3.886213278251039</v>
       </c>
     </row>
     <row r="20">
@@ -826,7 +781,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34.49704982541673</v>
+        <v>37.78001780346551</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -835,9 +790,6 @@
         <is>
           <t>max definition</t>
         </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4.829586975558342</v>
       </c>
     </row>
     <row r="21">
@@ -850,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.82869998625382</v>
+        <v>27.38813377373461</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -859,9 +811,6 @@
         <is>
           <t>max definition</t>
         </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3.336017998075534</v>
       </c>
     </row>
     <row r="22">
@@ -874,7 +823,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>47.78861512596627</v>
+        <v>50.45670540480805</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -883,9 +832,6 @@
         <is>
           <t>max definition</t>
         </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6.690406117635277</v>
       </c>
     </row>
   </sheetData>
